--- a/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H2">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N2">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q2">
-        <v>44.03178216115762</v>
+        <v>49.40740839468766</v>
       </c>
       <c r="R2">
-        <v>44.03178216115762</v>
+        <v>444.666675552189</v>
       </c>
       <c r="S2">
-        <v>0.007497971587824731</v>
+        <v>0.007545767972265551</v>
       </c>
       <c r="T2">
-        <v>0.007497971587824731</v>
+        <v>0.007545767972265554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H3">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N3">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q3">
-        <v>524.3147413038952</v>
+        <v>528.1415984546779</v>
       </c>
       <c r="R3">
-        <v>524.3147413038952</v>
+        <v>4753.274386092102</v>
       </c>
       <c r="S3">
-        <v>0.08928316866634232</v>
+        <v>0.08066065571795784</v>
       </c>
       <c r="T3">
-        <v>0.08928316866634232</v>
+        <v>0.08066065571795787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H4">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N4">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q4">
-        <v>499.3363006755467</v>
+        <v>566.0089061696447</v>
       </c>
       <c r="R4">
-        <v>499.3363006755467</v>
+        <v>5094.080155526802</v>
       </c>
       <c r="S4">
-        <v>0.08502970380648167</v>
+        <v>0.08644395678626976</v>
       </c>
       <c r="T4">
-        <v>0.08502970380648167</v>
+        <v>0.08644395678626977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H5">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I5">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J5">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N5">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q5">
-        <v>259.4399613045258</v>
+        <v>274.4081213950853</v>
       </c>
       <c r="R5">
-        <v>259.4399613045258</v>
+        <v>2469.673092555768</v>
       </c>
       <c r="S5">
-        <v>0.04417884907515039</v>
+        <v>0.0419090998906801</v>
       </c>
       <c r="T5">
-        <v>0.04417884907515039</v>
+        <v>0.04190909989068012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H6">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N6">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q6">
-        <v>66.54725884479126</v>
+        <v>74.17459265120802</v>
       </c>
       <c r="R6">
-        <v>66.54725884479126</v>
+        <v>667.5713338608722</v>
       </c>
       <c r="S6">
-        <v>0.01133202953810999</v>
+        <v>0.01132834697809224</v>
       </c>
       <c r="T6">
-        <v>0.01133202953810999</v>
+        <v>0.01132834697809224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H7">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N7">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q7">
-        <v>792.4209989499265</v>
+        <v>792.8909691961441</v>
       </c>
       <c r="R7">
-        <v>792.4209989499265</v>
+        <v>7136.018722765297</v>
       </c>
       <c r="S7">
-        <v>0.1349377618642823</v>
+        <v>0.1210946187070632</v>
       </c>
       <c r="T7">
-        <v>0.1349377618642823</v>
+        <v>0.1210946187070632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H8">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J8">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N8">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q8">
-        <v>754.6699320512467</v>
+        <v>849.7405837745441</v>
       </c>
       <c r="R8">
-        <v>754.6699320512467</v>
+        <v>7647.665253970897</v>
       </c>
       <c r="S8">
-        <v>0.128509304665335</v>
+        <v>0.1297770008610613</v>
       </c>
       <c r="T8">
-        <v>0.128509304665335</v>
+        <v>0.1297770008610613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H9">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J9">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N9">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q9">
-        <v>392.1035536654962</v>
+        <v>411.9647495384961</v>
       </c>
       <c r="R9">
-        <v>392.1035536654962</v>
+        <v>3707.682745846464</v>
       </c>
       <c r="S9">
-        <v>0.06676952784033545</v>
+        <v>0.06291749585279242</v>
       </c>
       <c r="T9">
-        <v>0.06676952784033545</v>
+        <v>0.06291749585279244</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H10">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N10">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q10">
-        <v>59.22550834768978</v>
+        <v>73.86907463153179</v>
       </c>
       <c r="R10">
-        <v>59.22550834768978</v>
+        <v>664.8216716837861</v>
       </c>
       <c r="S10">
-        <v>0.01008524200179181</v>
+        <v>0.01128168660543301</v>
       </c>
       <c r="T10">
-        <v>0.01008524200179181</v>
+        <v>0.01128168660543301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H11">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I11">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J11">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N11">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q11">
-        <v>705.2362081156847</v>
+        <v>789.6251274831054</v>
       </c>
       <c r="R11">
-        <v>705.2362081156847</v>
+        <v>7106.626147347949</v>
       </c>
       <c r="S11">
-        <v>0.1200914610224723</v>
+        <v>0.1205958416086193</v>
       </c>
       <c r="T11">
-        <v>0.1200914610224723</v>
+        <v>0.1205958416086193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H12">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I12">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J12">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N12">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q12">
-        <v>671.6386390113496</v>
+        <v>846.2405839617498</v>
       </c>
       <c r="R12">
-        <v>671.6386390113496</v>
+        <v>7616.165255655748</v>
       </c>
       <c r="S12">
-        <v>0.1143702840407578</v>
+        <v>0.1292424618648172</v>
       </c>
       <c r="T12">
-        <v>0.1143702840407578</v>
+        <v>0.1292424618648172</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H13">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I13">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J13">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N13">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O13">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P13">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q13">
-        <v>348.9630180701625</v>
+        <v>410.2679063209369</v>
       </c>
       <c r="R13">
-        <v>348.9630180701625</v>
+        <v>3692.411156888432</v>
       </c>
       <c r="S13">
-        <v>0.05942332256993653</v>
+        <v>0.0626583447331318</v>
       </c>
       <c r="T13">
-        <v>0.05942332256993653</v>
+        <v>0.0626583447331318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H14">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I14">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J14">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N14">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O14">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P14">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q14">
-        <v>25.03523094863628</v>
+        <v>30.695982631533</v>
       </c>
       <c r="R14">
-        <v>25.03523094863628</v>
+        <v>276.2638436837971</v>
       </c>
       <c r="S14">
-        <v>0.004263135424781773</v>
+        <v>0.004688057320633435</v>
       </c>
       <c r="T14">
-        <v>0.004263135424781773</v>
+        <v>0.004688057320633437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H15">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I15">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J15">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N15">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P15">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q15">
-        <v>298.1105918055895</v>
+        <v>328.125393739494</v>
       </c>
       <c r="R15">
-        <v>298.1105918055895</v>
+        <v>2953.128543655446</v>
       </c>
       <c r="S15">
-        <v>0.05076389457067482</v>
+        <v>0.05011309371233313</v>
       </c>
       <c r="T15">
-        <v>0.05076389457067482</v>
+        <v>0.05011309371233314</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H16">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I16">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J16">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N16">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O16">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P16">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q16">
-        <v>283.9085541142979</v>
+        <v>351.651708065394</v>
       </c>
       <c r="R16">
-        <v>283.9085541142979</v>
+        <v>3164.865372588546</v>
       </c>
       <c r="S16">
-        <v>0.04834549427270875</v>
+        <v>0.05370616031739951</v>
       </c>
       <c r="T16">
-        <v>0.04834549427270875</v>
+        <v>0.05370616031739952</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H17">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I17">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J17">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N17">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O17">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P17">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q17">
-        <v>147.5102534980678</v>
+        <v>170.485099339896</v>
       </c>
       <c r="R17">
-        <v>147.5102534980678</v>
+        <v>1534.365894059064</v>
       </c>
       <c r="S17">
-        <v>0.02511884905301453</v>
+        <v>0.02603741107145012</v>
       </c>
       <c r="T17">
-        <v>0.02511884905301453</v>
+        <v>0.02603741107145013</v>
       </c>
     </row>
   </sheetData>
